--- a/Team-Data/2008-09/1-11-2008-09.xlsx
+++ b/Team-Data/2008-09/1-11-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
@@ -696,25 +763,25 @@
         <v>21.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P2" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.741</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
         <v>21.9</v>
@@ -726,7 +793,7 @@
         <v>6.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
         <v>4.1</v>
@@ -738,31 +805,31 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>22</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -783,28 +850,28 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -866,70 +933,70 @@
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.369</v>
+        <v>0.361</v>
       </c>
       <c r="O3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
         <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -956,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>4</v>
@@ -965,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
@@ -974,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>29</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1138,16 +1205,16 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
@@ -1159,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417</v>
+        <v>0.432</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
         <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,34 +1342,34 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>18</v>
       </c>
-      <c r="AE5" t="n">
-        <v>20</v>
-      </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
       </c>
-      <c r="AG5" t="n">
-        <v>20</v>
-      </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,37 +1378,37 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>16</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1350,19 +1417,19 @@
         <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA5" t="n">
         <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.853</v>
+        <v>0.829</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
@@ -1490,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
@@ -1502,19 +1569,19 @@
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,25 +1593,25 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB6" t="n">
         <v>8</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.595</v>
+        <v>0.611</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1600,34 +1667,34 @@
         <v>0.451</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
         <v>20.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.332</v>
+        <v>0.337</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="R7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.3</v>
@@ -1636,55 +1703,55 @@
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1693,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
         <v>9</v>
@@ -1708,10 +1775,10 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1720,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1857,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
@@ -1896,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA8" t="n">
         <v>4</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2039,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2057,16 +2124,16 @@
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>19</v>
@@ -2078,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2087,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>26</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.282</v>
+        <v>0.263</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,37 +2207,37 @@
         <v>38.5</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="P10" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
         <v>20.2</v>
@@ -2185,25 +2252,25 @@
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
         <v>21.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,13 +2291,13 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>18</v>
@@ -2257,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -2427,16 +2494,16 @@
         <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>23</v>
@@ -2454,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
@@ -2504,10 +2571,10 @@
         <v>39.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L12" t="n">
         <v>7.2</v>
@@ -2519,13 +2586,13 @@
         <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R12" t="n">
         <v>11.8</v>
@@ -2534,37 +2601,37 @@
         <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U12" t="n">
         <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2597,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2609,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2618,25 +2685,25 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.216</v>
+        <v>0.222</v>
       </c>
       <c r="H13" t="n">
         <v>48.8</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.425</v>
@@ -2695,22 +2762,22 @@
         <v>5.2</v>
       </c>
       <c r="M13" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N13" t="n">
         <v>0.316</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
         <v>29.8</v>
@@ -2719,10 +2786,10 @@
         <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
@@ -2734,28 +2801,28 @@
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG13" t="n">
         <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>28</v>
       </c>
       <c r="AH13" t="n">
         <v>2</v>
@@ -2782,28 +2849,28 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT13" t="n">
         <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW13" t="n">
         <v>18</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -2868,49 +2935,49 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>8.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
@@ -2919,25 +2986,25 @@
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2946,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5</v>
       </c>
-      <c r="AK14" t="n">
-        <v>6</v>
-      </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
@@ -2967,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3122,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.528</v>
+        <v>0.543</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0.739</v>
@@ -3259,40 +3326,40 @@
         <v>10.7</v>
       </c>
       <c r="S16" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T16" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U16" t="n">
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y16" t="n">
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC16" t="n">
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,13 +3371,13 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -3334,34 +3401,34 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.474</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,88 +3481,88 @@
         <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>42.8</v>
+        <v>42.5</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,13 +3571,13 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
@@ -3519,25 +3586,25 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3698,13 +3765,13 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
@@ -3725,7 +3792,7 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,13 +3917,13 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3865,7 +3932,7 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>10</v>
@@ -3883,13 +3950,13 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
       </c>
       <c r="AU19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV19" t="n">
         <v>11</v>
@@ -3910,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="BB19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4029,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,13 +4120,13 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4071,16 +4138,16 @@
         <v>28</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -4241,10 +4308,10 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4253,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4453,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,37 +4573,37 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.393</v>
+        <v>0.387</v>
       </c>
       <c r="O23" t="n">
         <v>19</v>
       </c>
       <c r="P23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
         <v>19.4</v>
@@ -4545,28 +4612,28 @@
         <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4614,19 +4681,19 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4635,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.459</v>
+        <v>0.444</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.314</v>
+        <v>0.305</v>
       </c>
       <c r="O24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R24" t="n">
         <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W24" t="n">
         <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
         <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4760,16 +4827,16 @@
         <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
       </c>
       <c r="AJ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK24" t="n">
         <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4784,40 +4851,40 @@
         <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW24" t="n">
         <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.618</v>
+        <v>0.606</v>
       </c>
       <c r="H25" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I25" t="n">
         <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
         <v>6.9</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.394</v>
+        <v>0.398</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P25" t="n">
         <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
         <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
         <v>22.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4939,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4969,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -4978,10 +5045,10 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -4993,19 +5060,19 @@
         <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.629</v>
+        <v>0.611</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.7</v>
       </c>
       <c r="M26" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
         <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5142,16 +5209,16 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
         <v>13</v>
@@ -5169,25 +5236,25 @@
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.237</v>
+        <v>0.216</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J27" t="n">
         <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.327</v>
+        <v>0.323</v>
       </c>
       <c r="O27" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S27" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T27" t="n">
         <v>39.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>15.8</v>
@@ -5276,46 +5343,46 @@
         <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5324,13 +5391,13 @@
         <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,19 +5421,19 @@
         <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
         <v>24</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
         <v>79.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.403</v>
+        <v>0.406</v>
       </c>
       <c r="O28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.758</v>
+        <v>0.752</v>
       </c>
       <c r="R28" t="n">
         <v>8.300000000000001</v>
@@ -5446,22 +5513,22 @@
         <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U28" t="n">
         <v>22</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
         <v>5.5</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" t="n">
         <v>18.3</v>
@@ -5470,19 +5537,19 @@
         <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
         <v>5</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,19 +5606,19 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.421</v>
+        <v>0.432</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
         <v>0.382</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.826</v>
@@ -5628,19 +5695,19 @@
         <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.7</v>
@@ -5649,22 +5716,22 @@
         <v>19.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>19</v>
@@ -5673,25 +5740,25 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
         <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,13 +5770,13 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,19 +5785,19 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,13 +5946,13 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>10</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
@@ -5912,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
@@ -6022,28 +6089,28 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
         <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6073,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
@@ -6082,13 +6149,13 @@
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-11-2008-09</t>
+          <t>2009-01-11</t>
         </is>
       </c>
     </row>
